--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value400.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value400.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.215141698306751</v>
+        <v>2.975738763809204</v>
       </c>
       <c r="B1">
-        <v>1.348797696910739</v>
+        <v>2.697833776473999</v>
       </c>
       <c r="C1">
-        <v>1.619691598491968</v>
+        <v>2.135915040969849</v>
       </c>
       <c r="D1">
-        <v>2.917326834608762</v>
+        <v>2.004388809204102</v>
       </c>
       <c r="E1">
-        <v>2.446845502054484</v>
+        <v>1.747995257377625</v>
       </c>
     </row>
   </sheetData>
